--- a/data/trans_camb/IP1001-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1001-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,9</t>
+          <t>-1,19; 3,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,87</t>
+          <t>-1,45; 2,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 3,02</t>
+          <t>-1,2; 3,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; -0,12</t>
+          <t>-2,9; 1,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 0,29</t>
+          <t>-2,02; 2,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -0,1</t>
+          <t>-1,98; 2,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 0,19</t>
+          <t>-1,4; 1,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,24</t>
+          <t>-1,01; 1,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,81</t>
+          <t>-1,04; 2,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>61,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-21,34%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>63,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-53,48%</t>
+          <t>-42,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-45,93%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-50,26%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-35,41%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-34,12%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-23,97%</t>
+          <t>30,35%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 61,37</t>
+          <t>-55,29; 516,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,04; 75,52</t>
+          <t>-62,43; 509,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 98,68</t>
+          <t>-65,95; 563,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,92; 4,33</t>
+          <t>-89,1; 144,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,8; 16,81</t>
+          <t>-67,03; 192,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,19; 4,41</t>
+          <t>-70,78; 224,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,43; 8,64</t>
+          <t>-55,32; 147,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,77; 11,68</t>
+          <t>-43,92; 181,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,92; 24,62</t>
+          <t>-40,84; 205,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-1,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,13</t>
+          <t>-3,59; 1,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,48</t>
+          <t>-3,66; 1,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,55</t>
+          <t>-2,88; 3,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,1</t>
+          <t>-5,57; -0,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,27</t>
+          <t>-5,17; 0,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,59</t>
+          <t>-5,43; -0,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,63</t>
+          <t>-3,66; 0,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,92</t>
+          <t>-3,46; 0,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,32</t>
+          <t>-3,08; 0,81</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>61,54%</t>
+          <t>-16,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>-21,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>63,85%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-42,98%</t>
+          <t>-53,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>-45,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>-50,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>-35,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>-34,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>-23,97%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,29; 516,02</t>
+          <t>-61,58; 61,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 509,28</t>
+          <t>-60,04; 75,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 563,19</t>
+          <t>-49,65; 98,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-89,1; 144,09</t>
+          <t>-82,92; 4,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,03; 192,43</t>
+          <t>-76,8; 16,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,78; 224,9</t>
+          <t>-78,19; 4,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,32; 147,2</t>
+          <t>-63,43; 8,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 181,6</t>
+          <t>-60,77; 11,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 205,69</t>
+          <t>-53,92; 24,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1001-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1001-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-1,59</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,89</t>
+          <t>-4,94; 0,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,55</t>
+          <t>-5,24; 0,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,97</t>
+          <t>-4,25; 2,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,77</t>
+          <t>-3,72; 2,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,09</t>
+          <t>-5,23; 0,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,76</t>
+          <t>-5,79; -0,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,73</t>
+          <t>-2,94; 0,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,85</t>
+          <t>-3,84; -0,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,23</t>
+          <t>-3,92; 0,44</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>-62,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>-60,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-26,92%</t>
+          <t>-47,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>-12,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>-77,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,44%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>-40,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>-68,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,23%</t>
+          <t>-71,04%</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,67; 291,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-67,21; 467,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 641,89</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,93; 470,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,23; 208,92</t>
+          <t>-85,2; 118,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,08; 219,3</t>
+          <t>-98,11; 39,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,86; 185,66</t>
+          <t>-100,0; 280,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,13</t>
+          <t>-0,57; 3,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,48</t>
+          <t>-1,06; 2,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,55</t>
+          <t>-1,28; 2,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,1</t>
+          <t>-0,96; 2,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,27</t>
+          <t>-0,61; 3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,59</t>
+          <t>-0,7; 3,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,63</t>
+          <t>-0,21; 2,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,92</t>
+          <t>-0,22; 2,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,32</t>
+          <t>-0,57; 2,17</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>61,54%</t>
+          <t>108,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>63,85%</t>
+          <t>44,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-42,98%</t>
+          <t>76,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>66,04%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,29; 516,02</t>
+          <t>-40,66; 701,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 509,28</t>
+          <t>-55,23; 455,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 563,19</t>
+          <t>-80,24; 436,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-89,1; 144,09</t>
+          <t>-72,37; 748,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,03; 192,43</t>
+          <t>-54,84; 740,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,78; 224,9</t>
+          <t>-68,44; 1107,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,32; 147,2</t>
+          <t>-20,73; 334,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 181,6</t>
+          <t>-20,29; 355,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 205,69</t>
+          <t>-41,38; 305,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,9</t>
+          <t>-5,56; 1,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,87</t>
+          <t>-4,61; 2,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 3,02</t>
+          <t>-4,33; 3,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,57; -0,12</t>
+          <t>-6,37; 0,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 0,29</t>
+          <t>-3,82; 3,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -0,1</t>
+          <t>-5,6; 1,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 0,19</t>
+          <t>-4,88; -0,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,24</t>
+          <t>-2,91; 2,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,81</t>
+          <t>-3,66; 1,51</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>-43,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,34%</t>
+          <t>-22,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>-12,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-53,48%</t>
+          <t>-66,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-45,93%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-50,26%</t>
+          <t>-37,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-35,41%</t>
+          <t>-54,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,12%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-23,97%</t>
+          <t>-24,14%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 61,37</t>
+          <t>-83,78; 58,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,04; 75,52</t>
+          <t>-74,03; 86,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 98,68</t>
+          <t>-70,54; 159,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-82,92; 4,33</t>
+          <t>-93,28; 26,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,8; 16,81</t>
+          <t>-59,12; 155,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,19; 4,41</t>
+          <t>-82,3; 80,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,43; 8,64</t>
+          <t>-81,64; 4,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,77; 11,68</t>
+          <t>-52,31; 78,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-53,92; 24,62</t>
+          <t>-62,59; 55,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>-4,09</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-2,87</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>-0,78</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,36</t>
+          <t>-2,26; 4,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,29</t>
+          <t>-2,86; 3,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,41</t>
+          <t>-2,0; 4,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,22</t>
+          <t>-6,29; 0,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,61</t>
+          <t>-7,42; -1,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,73</t>
+          <t>-6,18; 0,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,53</t>
+          <t>-3,05; 1,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,59</t>
+          <t>-3,99; -0,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,1</t>
+          <t>-3,02; 1,2</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>33,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-36,91%</t>
+          <t>-51,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-25,79%</t>
+          <t>-77,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-27,65%</t>
+          <t>-54,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-18,95%</t>
+          <t>-20,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-14,81%</t>
+          <t>-45,21%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>-18,29%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 67,42</t>
+          <t>-51,36; 217,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,02; 64,61</t>
+          <t>-63,2; 201,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 114,38</t>
+          <t>-43,19; 212,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,07; 12,02</t>
+          <t>-85,36; 27,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,05; 29,17</t>
+          <t>-100,0; -23,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,37; 34,41</t>
+          <t>-83,97; 8,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 20,53</t>
+          <t>-57,12; 50,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 26,0</t>
+          <t>-74,0; 2,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 50,4</t>
+          <t>-54,75; 39,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 1,28</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 1,14</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 2,55</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 0,21</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 0,68</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 0,7</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 0,41</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 0,56</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 1,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-3,09%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-36,91%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-25,79%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-27,65%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-18,95%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-14,81%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-0,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-43,22; 68,84</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-42,44; 57,58</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-23,51; 127,97</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-64,62; 14,22</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-59,47; 30,51</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-63,38; 29,28</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-43,12; 19,75</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-42,59; 22,54</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-31,83; 48,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP1001-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1001-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,58</t>
+          <t>-4,85; 0,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 0,69</t>
+          <t>-4,82; 0,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,73</t>
+          <t>-4,13; 2,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 2,16</t>
+          <t>-3,92; 2,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 0,27</t>
+          <t>-5,89; 0,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,79; -0,43</t>
+          <t>-5,65; -0,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,84</t>
+          <t>-3,08; 1,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; -0,01</t>
+          <t>-3,68; -0,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,44</t>
+          <t>-3,87; 0,33</t>
         </is>
       </c>
     </row>
@@ -791,24 +791,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-85,2; 118,37</t>
+          <t>-84,7; 127,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-98,11; 39,34</t>
+          <t>-100,0; 36,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 280,11</t>
+          <t>-100,0; 129,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,51</t>
+          <t>-0,38; 3,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,61</t>
+          <t>-0,87; 2,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,88</t>
+          <t>-1,21; 2,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,74</t>
+          <t>-0,8; 2,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 3,06</t>
+          <t>-0,5; 3,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,77</t>
+          <t>-0,77; 3,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,45</t>
+          <t>-0,25; 2,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,38</t>
+          <t>-0,18; 2,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,17</t>
+          <t>-0,52; 2,4</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 701,37</t>
+          <t>-29,71; 706,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,23; 455,78</t>
+          <t>-51,44; 566,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-80,24; 436,28</t>
+          <t>-76,07; 556,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-72,37; 748,28</t>
+          <t>-65,16; 734,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,84; 740,16</t>
+          <t>-56,63; 881,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,44; 1107,61</t>
+          <t>-68,77; 811,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 334,88</t>
+          <t>-20,21; 429,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 355,63</t>
+          <t>-15,66; 415,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 305,42</t>
+          <t>-36,53; 396,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 1,08</t>
+          <t>-5,52; 1,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 2,11</t>
+          <t>-4,59; 2,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,52</t>
+          <t>-4,23; 3,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 0,12</t>
+          <t>-6,14; -0,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,69</t>
+          <t>-3,7; 3,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 1,53</t>
+          <t>-4,96; 1,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -0,18</t>
+          <t>-4,79; -0,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,33</t>
+          <t>-2,79; 2,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,51</t>
+          <t>-3,52; 1,5</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-83,78; 58,75</t>
+          <t>-85,49; 96,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,03; 86,39</t>
+          <t>-70,79; 100,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,54; 159,55</t>
+          <t>-70,58; 165,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-93,28; 26,8</t>
+          <t>-100,0; 19,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,12; 155,31</t>
+          <t>-59,45; 167,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,3; 80,33</t>
+          <t>-81,2; 86,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-81,64; 4,56</t>
+          <t>-82,47; 5,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 78,15</t>
+          <t>-49,39; 74,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 55,96</t>
+          <t>-63,08; 55,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 4,16</t>
+          <t>-2,17; 3,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,47</t>
+          <t>-2,67; 3,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,01</t>
+          <t>-2,05; 4,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 0,46</t>
+          <t>-6,15; 0,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -1,57</t>
+          <t>-7,3; -1,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 0,01</t>
+          <t>-5,82; 0,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,57</t>
+          <t>-3,18; 1,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; -0,05</t>
+          <t>-4,01; 0,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,2</t>
+          <t>-2,97; 1,42</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,36; 217,09</t>
+          <t>-50,21; 202,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 201,59</t>
+          <t>-62,59; 168,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 212,35</t>
+          <t>-47,27; 187,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-85,36; 27,21</t>
+          <t>-84,93; 37,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -23,08</t>
+          <t>-98,74; -13,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,97; 8,42</t>
+          <t>-82,09; 22,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,12; 50,12</t>
+          <t>-58,08; 42,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-74,0; 2,62</t>
+          <t>-74,07; 12,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,75; 39,71</t>
+          <t>-54,08; 45,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,28</t>
+          <t>-1,27; 1,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,14</t>
+          <t>-1,35; 1,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,55</t>
+          <t>-0,74; 2,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,21</t>
+          <t>-2,37; 0,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,68</t>
+          <t>-2,19; 0,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,7</t>
+          <t>-2,23; 0,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,41</t>
+          <t>-1,58; 0,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,56</t>
+          <t>-1,42; 0,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,17</t>
+          <t>-1,01; 1,13</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,22; 68,84</t>
+          <t>-38,59; 65,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,44; 57,58</t>
+          <t>-41,82; 61,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 127,97</t>
+          <t>-25,18; 105,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-64,62; 14,22</t>
+          <t>-63,6; 18,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,47; 30,51</t>
+          <t>-57,77; 36,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 29,28</t>
+          <t>-61,08; 23,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-43,12; 19,75</t>
+          <t>-46,99; 17,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,59; 22,54</t>
+          <t>-40,92; 23,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 48,27</t>
+          <t>-31,56; 45,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1001-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1001-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-1,52</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-1,47</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,63</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,54</t>
+          <t>-3,78; 2,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 0,65</t>
+          <t>-5,48; 0,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 2,92</t>
+          <t>-6,58; -0,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,22</t>
+          <t>-4,58; 0,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 0,25</t>
+          <t>-5,36; 0,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -0,42</t>
+          <t>-4,06; 2,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,0</t>
+          <t>-3,19; 0,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; -0,02</t>
+          <t>-3,88; -0,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,33</t>
+          <t>-3,8; 0,24</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-12,51%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-77,3%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-62,92%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-60,66%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-47,09%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-12,51%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-77,3%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-51,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-71,04%</t>
+          <t>-72,78%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,7; 127,43</t>
+          <t>-83,98; 99,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 36,82</t>
+          <t>-94,44; 44,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 129,93</t>
+          <t>-100,0; 720,51</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,42</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,89</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,8</t>
+          <t>-0,88; 2,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,8</t>
+          <t>-0,63; 3,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,98</t>
+          <t>-0,79; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,63</t>
+          <t>-0,4; 3,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,23</t>
+          <t>-1,1; 2,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,21</t>
+          <t>-1,07; 3,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,69</t>
+          <t>-0,14; 2,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,54</t>
+          <t>-0,37; 2,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,4</t>
+          <t>-0,55; 2,67</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>76,84%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>92,24%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>108,19%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>67,68%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>44,2%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>76,84%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66,04%</t>
+          <t>70,2%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 706,18</t>
+          <t>-73,66; 839,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-51,44; 566,22</t>
+          <t>-54,43; 1124,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,07; 556,72</t>
+          <t>-71,65; 881,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,16; 734,2</t>
+          <t>-37,7; 704,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,63; 881,3</t>
+          <t>-62,62; 417,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,77; 811,85</t>
+          <t>-71,22; 744,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 429,41</t>
+          <t>-19,14; 381,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 415,59</t>
+          <t>-26,67; 338,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 396,84</t>
+          <t>-38,09; 400,63</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-2,88</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,88</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,97</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-0,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 1,55</t>
+          <t>-6,67; -0,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,22</t>
+          <t>-3,61; 3,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 3,76</t>
+          <t>-5,51; 1,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -0,05</t>
+          <t>-5,43; 1,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,94</t>
+          <t>-4,32; 2,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 1,68</t>
+          <t>-3,48; 6,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; -0,08</t>
+          <t>-4,98; -0,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,27</t>
+          <t>-3,02; 2,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 1,5</t>
+          <t>-3,45; 2,86</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-66,27%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-36,76%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-43,31%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-22,44%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-12,49%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-66,27%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,96%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-37,5%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-24,14%</t>
+          <t>-15,27%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,49; 96,37</t>
+          <t>-93,61; 27,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,79; 100,82</t>
+          <t>-59,04; 172,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,58; 165,34</t>
+          <t>-83,38; 89,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 19,21</t>
+          <t>-85,87; 84,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,45; 167,15</t>
+          <t>-70,33; 116,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,2; 86,11</t>
+          <t>-64,41; 281,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-82,47; 5,87</t>
+          <t>-81,72; 9,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 74,2</t>
+          <t>-50,72; 77,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,08; 55,33</t>
+          <t>-62,6; 103,85</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-2,74</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-4,09</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-3,03</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,89</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,15</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,74</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-4,09</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,92</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,98</t>
+          <t>-6,2; 0,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,4</t>
+          <t>-7,18; -1,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 4,17</t>
+          <t>-6,31; -0,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 0,62</t>
+          <t>-2,0; 4,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,3; -1,03</t>
+          <t>-3,09; 3,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 0,45</t>
+          <t>-2,05; 3,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,35</t>
+          <t>-3,04; 1,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 0,33</t>
+          <t>-3,92; 0,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,42</t>
+          <t>-3,06; 1,09</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-51,9%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-77,26%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-57,34%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>26,6%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>4,4%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>33,94%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-51,9%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-77,26%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-54,23%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-18,29%</t>
+          <t>-21,35%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,21; 202,21</t>
+          <t>-84,39; 24,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 168,88</t>
+          <t>-95,09; -27,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,27; 187,15</t>
+          <t>-83,53; 0,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-84,93; 37,65</t>
+          <t>-45,49; 213,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-98,74; -13,52</t>
+          <t>-68,14; 205,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-82,09; 22,12</t>
+          <t>-44,19; 242,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-58,08; 42,43</t>
+          <t>-59,19; 42,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-74,07; 12,82</t>
+          <t>-74,01; 13,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 45,59</t>
+          <t>-57,51; 37,56</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,01</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-0,08</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,38</t>
+          <t>-2,49; 0,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,23</t>
+          <t>-2,14; 0,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,34</t>
+          <t>-2,39; 0,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 0,35</t>
+          <t>-1,37; 1,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,76</t>
+          <t>-1,42; 1,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,53</t>
+          <t>-0,64; 2,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,42</t>
+          <t>-1,51; 0,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,52</t>
+          <t>-1,46; 0,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,13</t>
+          <t>-0,98; 1,32</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-36,91%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-25,79%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-29,74%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>0,21%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-3,09%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>27,54%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-36,91%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-25,79%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-27,65%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 65,75</t>
+          <t>-66,07; 12,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 61,49</t>
+          <t>-58,05; 29,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 105,35</t>
+          <t>-62,58; 33,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-63,6; 18,52</t>
+          <t>-40,66; 67,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-57,77; 36,12</t>
+          <t>-44,02; 64,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-61,08; 23,42</t>
+          <t>-20,14; 135,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 17,73</t>
+          <t>-44,99; 20,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 23,15</t>
+          <t>-43,15; 26,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 45,82</t>
+          <t>-29,12; 56,22</t>
         </is>
       </c>
     </row>
